--- a/admin/uploads/duykhoa.xlsx
+++ b/admin/uploads/duykhoa.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t xml:space="preserve">TH Logistics 1688 - Vận Chuyển Đặt Hàng Trung Quốc 
 033.699.1688 </t>
@@ -268,22 +268,13 @@
     <t>Vân</t>
   </si>
   <si>
-    <t>https://mobile.yangkeduo.com/goods2.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=HulHuqtv3IDEl9DFFidplePRDPjoVjlH&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6JN2X7IBCFR6QGSQON5VCVMW5LEA&amp;goods_id=326788273894</t>
+    <t>Aó moto GP</t>
   </si>
   <si>
-    <t>https://mobile.yangkeduo.com/goods1.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=FTh8Vkn3DAYn1HZj0swzbonVrgevu9Uf&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6ITVHYQI5PTKP7BH33JXKBD37D4Q&amp;goods_id=353367786333</t>
+    <t>TH273</t>
   </si>
   <si>
-    <t xml:space="preserve">JT3019292387127 </t>
-  </si>
-  <si>
-    <t>YT8476100819062</t>
-  </si>
-  <si>
-    <t>THKG837</t>
-  </si>
-  <si>
-    <t>Áo Nữ</t>
+    <t>78640324277620</t>
   </si>
 </sst>
 </file>
@@ -300,7 +291,7 @@
     <numFmt numFmtId="169" formatCode="[&lt;1000000000]0000000000;[&gt;=1000000000]00000000000"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,12 +403,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1249,7 +1234,6 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,6 +1250,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1293,7 +1278,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1341,11 +1325,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1368,17 +1364,6 @@
       </font>
       <fill>
         <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1753,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C38" sqref="C37:C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="10">
-        <f>SUM((H15:H101))</f>
+        <f>SUM((H15:H100))</f>
         <v>0</v>
       </c>
       <c r="O4" s="7"/>
@@ -1870,8 +1855,8 @@
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="112" t="s">
-        <v>73</v>
+      <c r="C5" s="135" t="s">
+        <v>70</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="95"/>
@@ -1886,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="N5" s="10">
-        <f>SUM(I15:I997)</f>
+        <f>SUM(I15:I996)</f>
         <v>0</v>
       </c>
       <c r="O5" s="7" t="e">
@@ -1913,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="10">
-        <f>SUM(J15:J997)</f>
+        <f>SUM(J15:J996)</f>
         <v>0</v>
       </c>
       <c r="O6" s="7" t="e">
@@ -1985,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="N9" s="10">
-        <f>SUM(N15:N101)*16000</f>
+        <f>SUM(N15:N100)*16000</f>
         <v>0</v>
       </c>
       <c r="O9" s="7"/>
@@ -2123,95 +2108,72 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87">
-        <v>1</v>
+      <c r="B15" s="86"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86">
+        <v>3</v>
       </c>
-      <c r="G15" s="87"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="74">
         <f>F15*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="86" t="s">
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="92"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87">
-        <v>1</v>
-      </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="74">
-        <f t="shared" ref="H16" si="0">F16*G16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="69"/>
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
+      <c r="C18" s="70"/>
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C19" s="70"/>
@@ -2222,10 +2184,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="70"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
       <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="70"/>
@@ -2237,7 +2196,6 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="70"/>
-      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="70"/>
@@ -2249,13 +2207,10 @@
       <c r="C26" s="70"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="70"/>
+      <c r="C27" s="71"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C28" s="71"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2276,23 +2231,18 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
   </mergeCells>
-  <conditionalFormatting sqref="H15:I15 H16">
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N12 O3:O7 O10 O12">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N12 O3:O7 O10 O12">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N12 O3:O7 O10 O12">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H15:I15">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2462,9 +2412,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="116"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="94"/>
@@ -2480,17 +2430,17 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
       <c r="H2" s="106"/>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="122" t="s">
         <v>45</v>
       </c>
       <c r="J2" s="28" t="s">
@@ -2511,17 +2461,17 @@
       <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="126" t="e">
+      <c r="B3" s="125" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="107"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
       <c r="H3" s="100"/>
-      <c r="I3" s="124"/>
+      <c r="I3" s="123"/>
       <c r="J3" s="31" t="s">
         <v>7</v>
       </c>
@@ -2540,17 +2490,17 @@
       <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="129" t="e">
+      <c r="B4" s="128" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="107"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
       <c r="H4" s="100"/>
-      <c r="I4" s="124"/>
+      <c r="I4" s="123"/>
       <c r="J4" s="31" t="s">
         <v>46</v>
       </c>
@@ -2569,17 +2519,17 @@
       <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="126" t="e">
+      <c r="B5" s="125" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="107"/>
       <c r="F5" s="99"/>
       <c r="G5" s="99"/>
       <c r="H5" s="100"/>
-      <c r="I5" s="124"/>
+      <c r="I5" s="123"/>
       <c r="J5" s="31" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2553,7 @@
       <c r="F6" s="99"/>
       <c r="G6" s="99"/>
       <c r="H6" s="100"/>
-      <c r="I6" s="124"/>
+      <c r="I6" s="123"/>
       <c r="J6" s="31" t="s">
         <v>47</v>
       </c>
@@ -2622,17 +2572,17 @@
       <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="130" t="e">
+      <c r="B7" s="129" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="107"/>
       <c r="F7" s="99"/>
       <c r="G7" s="99"/>
       <c r="H7" s="100"/>
-      <c r="I7" s="124"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="31" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2617,7 @@
       <c r="F8" s="99"/>
       <c r="G8" s="99"/>
       <c r="H8" s="100"/>
-      <c r="I8" s="124"/>
+      <c r="I8" s="123"/>
       <c r="J8" s="42" t="s">
         <v>15</v>
       </c>
@@ -2696,7 +2646,7 @@
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
       <c r="H9" s="100"/>
-      <c r="I9" s="124"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="42" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2675,7 @@
       <c r="F10" s="109"/>
       <c r="G10" s="109"/>
       <c r="H10" s="110"/>
-      <c r="I10" s="125"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="51" t="s">
         <v>17</v>
       </c>
@@ -2781,7 +2731,7 @@
       <c r="H12" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="132" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="94"/>
@@ -2816,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="64"/>
-      <c r="I13" s="134"/>
+      <c r="I13" s="133"/>
       <c r="J13" s="105"/>
       <c r="K13" s="105"/>
       <c r="L13" s="106"/>
@@ -2832,7 +2782,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="135" t="s">
+      <c r="I14" s="134" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="99"/>
@@ -2946,12 +2896,12 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="113" t="s">
+      <c r="I21" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="115"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
@@ -3060,12 +3010,12 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="113" t="s">
+      <c r="I28" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="115"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="114"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
@@ -3174,12 +3124,12 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="113" t="s">
+      <c r="I35" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="115"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="114"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
@@ -18642,17 +18592,17 @@
     <mergeCell ref="I14:L20"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:D10">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L6 K7 K8:L8 K9 K10:L10">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L6 K7 K8:L8 K9 K10:L10">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
